--- a/Очищенные_данные_с_классификацией.xlsx
+++ b/Очищенные_данные_с_классификацией.xlsx
@@ -1531,7 +1531,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -9424,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -11984,7 +11984,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -15353,7 +15353,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -18681,7 +18681,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -18893,10 +18893,8 @@
       <c r="E73" t="n">
         <v>4</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2, 4</t>
-        </is>
+      <c r="F73" t="n">
+        <v>1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -18937,7 +18935,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -19150,7 +19148,7 @@
         <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -19657,10 +19655,8 @@
       <c r="E76" t="n">
         <v>4</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2, 3, 6, 12</t>
-        </is>
+      <c r="F76" t="n">
+        <v>1</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -20167,10 +20163,8 @@
       <c r="E78" t="n">
         <v>5</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2, 3, 12</t>
-        </is>
+      <c r="F78" t="n">
+        <v>1</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -20423,10 +20417,8 @@
       <c r="E79" t="n">
         <v>4</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2, 3, 4</t>
-        </is>
+      <c r="F79" t="n">
+        <v>1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -20679,10 +20671,8 @@
       <c r="E80" t="n">
         <v>4</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2, 7, 12</t>
-        </is>
+      <c r="F80" t="n">
+        <v>1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -20936,7 +20926,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -21189,10 +21179,8 @@
       <c r="E82" t="n">
         <v>3</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2, 5, 11</t>
-        </is>
+      <c r="F82" t="n">
+        <v>1</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -21446,7 +21434,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -21487,7 +21475,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -21700,7 +21688,7 @@
         <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -21953,10 +21941,8 @@
       <c r="E85" t="n">
         <v>5</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2, 4</t>
-        </is>
+      <c r="F85" t="n">
+        <v>1</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -21997,7 +21983,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -22209,10 +22195,8 @@
       <c r="E86" t="n">
         <v>3</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2, 3, 4</t>
-        </is>
+      <c r="F86" t="n">
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -22253,7 +22237,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -22465,10 +22449,8 @@
       <c r="E87" t="n">
         <v>4</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2, 11</t>
-        </is>
+      <c r="F87" t="n">
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -22722,7 +22704,7 @@
         <v>5</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -22763,7 +22745,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -22976,7 +22958,7 @@
         <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -23017,7 +22999,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -23229,10 +23211,8 @@
       <c r="E90" t="n">
         <v>5</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2, 12, 11</t>
-        </is>
+      <c r="F90" t="n">
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -23273,7 +23253,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -23486,7 +23466,7 @@
         <v>5</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -23737,10 +23717,8 @@
       <c r="E92" t="n">
         <v>4</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>8, 9</t>
-        </is>
+      <c r="F92" t="n">
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -23993,10 +23971,8 @@
       <c r="E93" t="n">
         <v>4</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
+      <c r="F93" t="n">
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -24037,7 +24013,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -24756,7 +24732,7 @@
         <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -25010,7 +24986,7 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -25051,7 +25027,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -26533,10 +26509,8 @@
       <c r="E103" t="n">
         <v>5</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
+      <c r="F103" t="n">
+        <v>1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -26577,7 +26551,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -26789,10 +26763,8 @@
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2, 3</t>
-        </is>
+      <c r="F104" t="n">
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -26833,7 +26805,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -27045,10 +27017,8 @@
       <c r="E105" t="n">
         <v>5</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>1, 2, 11</t>
-        </is>
+      <c r="F105" t="n">
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -27302,7 +27272,7 @@
         <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -27555,10 +27525,8 @@
       <c r="E107" t="n">
         <v>5</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2, 5, 8, 11</t>
-        </is>
+      <c r="F107" t="n">
+        <v>1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -27811,10 +27779,8 @@
       <c r="E108" t="n">
         <v>4</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2, 4, 11</t>
-        </is>
+      <c r="F108" t="n">
+        <v>1</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -27855,7 +27821,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -28067,10 +28033,8 @@
       <c r="E109" t="n">
         <v>4</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2, 3, 5, 11</t>
-        </is>
+      <c r="F109" t="n">
+        <v>1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -28323,10 +28287,8 @@
       <c r="E110" t="n">
         <v>3</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2, 12</t>
-        </is>
+      <c r="F110" t="n">
+        <v>1</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -28579,10 +28541,8 @@
       <c r="E111" t="n">
         <v>4</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2, 5, 11</t>
-        </is>
+      <c r="F111" t="n">
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -28623,7 +28583,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -28835,10 +28795,8 @@
       <c r="E112" t="n">
         <v>5</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2, 3, 11</t>
-        </is>
+      <c r="F112" t="n">
+        <v>1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -29092,7 +29050,7 @@
         <v>4</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -29133,7 +29091,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
@@ -29345,10 +29303,8 @@
       <c r="E114" t="n">
         <v>5</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2, 5</t>
-        </is>
+      <c r="F114" t="n">
+        <v>1</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -29599,10 +29555,8 @@
       <c r="E115" t="n">
         <v>4</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2, 11</t>
-        </is>
+      <c r="F115" t="n">
+        <v>1</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -29643,7 +29597,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
@@ -29855,10 +29809,8 @@
       <c r="E116" t="n">
         <v>5</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2, 11</t>
-        </is>
+      <c r="F116" t="n">
+        <v>1</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -29897,7 +29849,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -30109,10 +30061,8 @@
       <c r="E117" t="n">
         <v>4</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>1, 2, 11</t>
-        </is>
+      <c r="F117" t="n">
+        <v>1</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -30153,7 +30103,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -30365,10 +30315,8 @@
       <c r="E118" t="n">
         <v>3</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2, 11</t>
-        </is>
+      <c r="F118" t="n">
+        <v>1</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -30621,10 +30569,8 @@
       <c r="E119" t="n">
         <v>4</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>1, 2, 5, 11</t>
-        </is>
+      <c r="F119" t="n">
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -30877,10 +30823,8 @@
       <c r="E120" t="n">
         <v>1</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>5, 11</t>
-        </is>
+      <c r="F120" t="n">
+        <v>1</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -31133,10 +31077,8 @@
       <c r="E121" t="n">
         <v>4</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2, 12, 11</t>
-        </is>
+      <c r="F121" t="n">
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -31389,10 +31331,8 @@
       <c r="E122" t="n">
         <v>4</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2, 3, 11</t>
-        </is>
+      <c r="F122" t="n">
+        <v>1</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -31433,7 +31373,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
@@ -31687,7 +31627,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Нормальная температура</t>
+          <t>Лихорадка</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -31899,10 +31839,8 @@
       <c r="E124" t="n">
         <v>4</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2, 4, 8</t>
-        </is>
+      <c r="F124" t="n">
+        <v>1</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -32155,10 +32093,8 @@
       <c r="E125" t="n">
         <v>3</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
+      <c r="F125" t="n">
+        <v>1</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -32411,10 +32347,8 @@
       <c r="E126" t="n">
         <v>4</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2, 5, 11</t>
-        </is>
+      <c r="F126" t="n">
+        <v>1</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -32668,7 +32602,7 @@
         <v>4</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -32921,10 +32855,8 @@
       <c r="E128" t="n">
         <v>1</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2, 5, 11, 12</t>
-        </is>
+      <c r="F128" t="n">
+        <v>1</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
